--- a/analysis/home/data/educationlevel1.xlsx
+++ b/analysis/home/data/educationlevel1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hao\Desktop\Python data visualization - copia\Marriage Rate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C1232D-6854-4FEB-8D4F-44BFE79DAE11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2B16A0-7D9C-4C5D-B2EC-8CED8608FA6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,19 +53,19 @@
     <t>Diploma</t>
   </si>
   <si>
-    <t>Graduated High School</t>
-  </si>
-  <si>
-    <t>Graduated Junior High</t>
-  </si>
-  <si>
-    <t>Graduated Elementary School</t>
-  </si>
-  <si>
     <t>Male</t>
   </si>
   <si>
     <t>Female</t>
+  </si>
+  <si>
+    <t>Junior High Graduate</t>
+  </si>
+  <si>
+    <t>Elemental School Graduate</t>
+  </si>
+  <si>
+    <t>High School Graduate</t>
   </si>
 </sst>
 </file>
@@ -179,9 +179,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -191,9 +188,6 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -201,6 +195,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -486,7 +486,7 @@
   <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:H1"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -515,1121 +515,1133 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="2">
+      <c r="A2" s="8">
         <v>110</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="4">
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3">
         <v>113609</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>63091</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>7046</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <v>30248</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="4">
         <v>12088</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="4">
         <v>1136</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4">
+      <c r="A3" s="9"/>
+      <c r="B3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3">
         <v>115183</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>68196</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>7115</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>27197</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="4">
         <v>11112</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="4">
         <v>1563</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="2">
+      <c r="A4" s="8">
         <v>109</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="4">
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3">
         <v>119357</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>64256</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>7966</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>32638</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <v>13134</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <v>1363</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="4">
+      <c r="A5" s="9"/>
+      <c r="B5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3">
         <v>121437</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>69233</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>8000</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>30096</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <v>12266</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="4">
         <v>1842</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="8">
+      <c r="A6" s="6">
         <v>108</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="4">
+      <c r="B6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3">
         <v>132659</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>69462</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>9682</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>36969</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <v>14815</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <v>1731</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="9"/>
-      <c r="B7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="4">
+      <c r="A7" s="7"/>
+      <c r="B7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3">
         <v>134823</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>73608</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>9392</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>33878</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <v>14925</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="4">
         <v>3020</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="8">
+      <c r="A8" s="6">
         <v>107</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="4">
+      <c r="B8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3">
         <v>135322</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>69354</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>10797</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <v>38093</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="4">
         <v>15233</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="4">
         <v>1845</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="9"/>
-      <c r="B9" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="4">
+      <c r="A9" s="7"/>
+      <c r="B9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3">
         <v>135322</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>73029</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>10052</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <v>34220</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="4">
         <v>14729</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="4">
         <v>3292</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="8">
+      <c r="A10" s="6">
         <v>106</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="4">
+      <c r="B10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="3">
         <v>137620</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>68941</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>11940</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <v>39093</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="4">
         <v>15660</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="4">
         <v>1986</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="9"/>
-      <c r="B11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4">
+      <c r="A11" s="7"/>
+      <c r="B11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="3">
         <v>137620</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>72577</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>11104</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <v>35131</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="4">
         <v>15313</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="4">
         <v>3495</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="8">
+      <c r="A12" s="6">
         <v>105</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="4">
+      <c r="B12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="3">
         <v>148349</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>72447</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>13811</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <v>42940</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="4">
         <v>17010</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="4">
         <v>2141</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="9"/>
-      <c r="B13" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="4">
+      <c r="A13" s="7"/>
+      <c r="B13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="3">
         <v>148349</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>76944</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>13165</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="4">
         <v>38434</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="4">
         <v>16139</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="4">
         <v>3667</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="8">
+      <c r="A14" s="6">
         <v>104</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="4">
+      <c r="B14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="3">
         <v>154024</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>74342</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="4">
         <v>15557</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="4">
         <v>44244</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="4">
         <v>17542</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="4">
         <v>2339</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="9"/>
-      <c r="B15" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="4">
+      <c r="A15" s="7"/>
+      <c r="B15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="3">
         <v>154024</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>78799</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="4">
         <v>15088</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="4">
         <v>39894</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="4">
         <v>16468</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="4">
         <v>3775</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="8">
+      <c r="A16" s="6">
         <v>103</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="4">
+      <c r="B16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="3">
         <v>149513</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>75491</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="4">
         <v>14644</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="4">
         <v>40720</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="4">
         <v>16123</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="4">
         <v>2535</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="9"/>
-      <c r="B17" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="4">
+      <c r="A17" s="7"/>
+      <c r="B17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="3">
         <v>149513</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>79682</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <v>14177</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="4">
         <v>36143</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="4">
         <v>15637</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="4">
         <v>3874</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="8">
+      <c r="A18" s="6">
         <v>102</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="4">
+      <c r="B18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="3">
         <v>147527</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>66990</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="4">
         <v>17260</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="4">
         <v>43389</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="4">
         <v>17206</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="4">
         <v>2682</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="9"/>
-      <c r="B19" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="4">
+      <c r="A19" s="7"/>
+      <c r="B19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="3">
         <v>147527</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <v>69730</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="4">
         <v>17418</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="4">
         <v>39650</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="4">
         <v>16744</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="4">
         <v>3985</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="8">
+      <c r="A20" s="6">
         <v>101</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="4">
+      <c r="B20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="3">
         <v>142846</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <v>61732</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="4">
         <v>18168</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="4">
         <v>42851</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="4">
         <v>17146</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="4">
         <v>2949</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="9"/>
-      <c r="B21" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="4">
+      <c r="A21" s="7"/>
+      <c r="B21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="3">
         <v>142846</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="4">
         <v>63808</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="4">
         <v>18367</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="4">
         <v>39233</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="4">
         <v>17099</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="4">
         <v>4339</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="8">
+      <c r="A22" s="6">
         <v>100</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="4">
+      <c r="B22" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="3">
         <v>165305</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="4">
         <v>69892</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="4">
         <v>23242</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="4">
         <v>49790</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="4">
         <v>19067</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="4">
         <v>3314</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="9"/>
-      <c r="B23" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="4">
+      <c r="A23" s="7"/>
+      <c r="B23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="3">
         <v>165305</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="4">
         <v>71537</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="4">
         <v>23750</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="4">
         <v>46067</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="4">
         <v>18947</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="4">
         <v>5004</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="8">
+      <c r="A24" s="6">
         <v>99</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="4">
+      <c r="B24" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="3">
         <v>133822</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="4">
         <v>52581</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="4">
         <v>19530</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="4">
         <v>41269</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" s="4">
         <v>17068</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H24" s="4">
         <v>3374</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="9"/>
-      <c r="B25" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="4">
+      <c r="A25" s="7"/>
+      <c r="B25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="3">
         <v>133822</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="4">
         <v>52287</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="4">
         <v>20899</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="4">
         <v>38043</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25" s="4">
         <v>17354</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H25" s="4">
         <v>5239</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="8">
+      <c r="A26" s="6">
         <v>98</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="4">
+      <c r="B26" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="3">
         <v>116392</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="4">
         <v>42438</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="4">
         <v>17448</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="4">
         <v>36775</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26" s="4">
         <v>16105</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H26" s="4">
         <v>3626</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="9"/>
-      <c r="B27" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="4">
+      <c r="A27" s="7"/>
+      <c r="B27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="3">
         <v>116392</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="4">
         <v>41023</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="4">
         <v>18731</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="4">
         <v>34060</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="4">
         <v>17089</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H27" s="4">
         <v>5489</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="8">
+      <c r="A28" s="6">
         <v>97</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="4">
+      <c r="B28" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="3">
         <v>148425</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="4">
         <v>53101</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="4">
         <v>24367</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="4">
         <v>47794</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G28" s="4">
         <v>19286</v>
       </c>
-      <c r="H28" s="5">
+      <c r="H28" s="4">
         <v>3877</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="9"/>
-      <c r="B29" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="4">
+      <c r="A29" s="7"/>
+      <c r="B29" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="3">
         <v>148425</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="4">
         <v>50745</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="4">
         <v>27580</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="4">
         <v>45120</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29" s="4">
         <v>19164</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H29" s="4">
         <v>5816</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="8">
+      <c r="A30" s="6">
         <v>96</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="4">
+      <c r="B30" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="3">
         <f>SUM(D30:H30)</f>
         <v>131851</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="4">
         <v>41438</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="4">
         <v>22073</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="4">
         <v>44540</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G30" s="4">
         <v>19504</v>
       </c>
-      <c r="H30" s="5">
+      <c r="H30" s="4">
         <v>4296</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="9"/>
-      <c r="B31" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="4">
+      <c r="A31" s="7"/>
+      <c r="B31" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="3">
         <f>SUM(D31:H31)</f>
         <v>131851</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="4">
         <v>38416</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="4">
         <v>24644</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31" s="4">
         <v>42005</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G31" s="4">
         <v>20252</v>
       </c>
-      <c r="H31" s="5">
+      <c r="H31" s="4">
         <v>6534</v>
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="8">
+      <c r="A32" s="6">
         <v>95</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="4">
+      <c r="B32" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="3">
         <f>SUM(D32:H32)</f>
         <v>142799</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="4">
         <v>42700</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="4">
         <v>25266</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="4">
         <v>48848</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G32" s="4">
         <v>21117</v>
       </c>
-      <c r="H32" s="5">
+      <c r="H32" s="4">
         <v>4868</v>
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="9"/>
-      <c r="B33" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="4">
+      <c r="A33" s="7"/>
+      <c r="B33" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="3">
         <f>SUM(D33:H33)</f>
         <v>142799</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="4">
         <v>38476</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="4">
         <v>29089</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33" s="4">
         <v>46983</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G33" s="4">
         <v>21134</v>
       </c>
-      <c r="H33" s="5">
+      <c r="H33" s="4">
         <v>7117</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="8">
+      <c r="A34" s="6">
         <v>94</v>
       </c>
-      <c r="B34" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="4">
+      <c r="B34" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="3">
         <v>142082</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="4">
         <v>37812</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="4">
         <v>25661</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34" s="4">
         <v>50039</v>
       </c>
-      <c r="G34" s="5">
+      <c r="G34" s="4">
         <v>22900</v>
       </c>
-      <c r="H34" s="5">
+      <c r="H34" s="4">
         <v>5670</v>
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="9"/>
-      <c r="B35" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="4">
+      <c r="A35" s="7"/>
+      <c r="B35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="3">
         <v>142082</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="4">
         <v>32897</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="4">
         <v>29488</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F35" s="4">
         <v>48292</v>
       </c>
-      <c r="G35" s="5">
+      <c r="G35" s="4">
         <v>23004</v>
       </c>
-      <c r="H35" s="5">
+      <c r="H35" s="4">
         <v>8401</v>
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="8">
+      <c r="A36" s="6">
         <v>93</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="4">
+      <c r="B36" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="3">
         <v>129274</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="4">
         <v>29477</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="4">
         <v>22344</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F36" s="4">
         <v>46094</v>
       </c>
-      <c r="G36" s="5">
+      <c r="G36" s="4">
         <v>24392</v>
       </c>
-      <c r="H36" s="5">
+      <c r="H36" s="4">
         <v>6967</v>
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="9"/>
-      <c r="B37" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="4">
+      <c r="A37" s="7"/>
+      <c r="B37" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="3">
         <v>129274</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="4">
         <v>24837</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="4">
         <v>24480</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F37" s="4">
         <v>43441</v>
       </c>
-      <c r="G37" s="5">
+      <c r="G37" s="4">
         <v>25609</v>
       </c>
-      <c r="H37" s="5">
+      <c r="H37" s="4">
         <v>10907</v>
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="8">
+      <c r="A38" s="6">
         <v>92</v>
       </c>
-      <c r="B38" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="4">
+      <c r="B38" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="3">
         <v>173065</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="4">
         <v>30315</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E38" s="4">
         <v>27247</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F38" s="4">
         <v>58966</v>
       </c>
-      <c r="G38" s="5">
+      <c r="G38" s="4">
         <v>39296</v>
       </c>
-      <c r="H38" s="5">
+      <c r="H38" s="4">
         <v>17241</v>
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="9"/>
-      <c r="B39" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="4">
+      <c r="A39" s="7"/>
+      <c r="B39" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="3">
         <v>173065</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="4">
         <v>25514</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E39" s="4">
         <v>29967</v>
       </c>
-      <c r="F39" s="5">
+      <c r="F39" s="4">
         <v>58514</v>
       </c>
-      <c r="G39" s="5">
+      <c r="G39" s="4">
         <v>39815</v>
       </c>
-      <c r="H39" s="5">
+      <c r="H39" s="4">
         <v>19255</v>
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="8">
+      <c r="A40" s="6">
         <v>91</v>
       </c>
-      <c r="B40" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="4">
+      <c r="B40" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="3">
         <v>173343</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="4">
         <v>26997</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E40" s="4">
         <v>24902</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F40" s="4">
         <v>56904</v>
       </c>
-      <c r="G40" s="5">
+      <c r="G40" s="4">
         <v>43993</v>
       </c>
-      <c r="H40" s="5">
+      <c r="H40" s="4">
         <v>20547</v>
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="9"/>
-      <c r="B41" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" s="4">
+      <c r="A41" s="7"/>
+      <c r="B41" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="3">
         <v>173343</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="4">
         <v>25289</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E41" s="4">
         <v>33332</v>
       </c>
-      <c r="F41" s="5">
+      <c r="F41" s="4">
         <v>63160</v>
       </c>
-      <c r="G41" s="5">
+      <c r="G41" s="4">
         <v>35688</v>
       </c>
-      <c r="H41" s="5">
+      <c r="H41" s="4">
         <v>15874</v>
       </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="8">
+      <c r="A42" s="6">
         <v>90</v>
       </c>
-      <c r="B42" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="4">
+      <c r="B42" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="3">
         <v>167157</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="4">
         <v>23023</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E42" s="4">
         <v>23228</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F42" s="4">
         <v>54791</v>
       </c>
-      <c r="G42" s="5">
+      <c r="G42" s="4">
         <v>45430</v>
       </c>
-      <c r="H42" s="5">
+      <c r="H42" s="4">
         <v>20685</v>
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="9"/>
-      <c r="B43" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43" s="4">
+      <c r="A43" s="7"/>
+      <c r="B43" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="3">
         <v>167157</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="4">
         <v>21423</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E43" s="4">
         <v>30713</v>
       </c>
-      <c r="F43" s="5">
+      <c r="F43" s="4">
         <v>61790</v>
       </c>
-      <c r="G43" s="5">
+      <c r="G43" s="4">
         <v>36373</v>
       </c>
-      <c r="H43" s="5">
+      <c r="H43" s="4">
         <v>16858</v>
       </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="2">
+      <c r="A44" s="8">
         <v>89</v>
       </c>
-      <c r="B44" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="4">
+      <c r="B44" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="3">
         <v>183028</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D44" s="4">
         <v>22905</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E44" s="4">
         <v>25241</v>
       </c>
-      <c r="F44" s="5">
+      <c r="F44" s="4">
         <v>60579</v>
       </c>
-      <c r="G44" s="5">
+      <c r="G44" s="4">
         <v>51527</v>
       </c>
-      <c r="H44" s="5">
+      <c r="H44" s="4">
         <v>22776</v>
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="6"/>
-      <c r="B45" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C45" s="4">
+      <c r="A45" s="9"/>
+      <c r="B45" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="3">
         <v>183028</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45" s="4">
         <v>20300</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E45" s="4">
         <v>31815</v>
       </c>
-      <c r="F45" s="5">
+      <c r="F45" s="4">
         <v>69550</v>
       </c>
-      <c r="G45" s="5">
+      <c r="G45" s="4">
         <v>40961</v>
       </c>
-      <c r="H45" s="5">
+      <c r="H45" s="4">
         <v>20402</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="A42:A43"/>
@@ -1640,18 +1652,6 @@
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
